--- a/bases/UPDATE/SCN/Cuenta de generacion del ingreso.xlsx
+++ b/bases/UPDATE/SCN/Cuenta de generacion del ingreso.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcant\Dropbox (CIEP)\TemplateCIEP\basesCIEP\INEGI\SCN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcant\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="5168"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15570" windowHeight="5978"/>
   </bookViews>
   <sheets>
     <sheet name="Cuenta de generacion del ingres" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Cuenta_de_generacion_del_ingreso" localSheetId="0">'Cuenta de generacion del ingres'!$A$1:$M$28</definedName>
+    <definedName name="Cuenta_de_generacion_del_ingreso" localSheetId="0">'Cuenta de generacion del ingres'!$A$1:$M$29</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -23,7 +23,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\rcant\Dropbox (CIEP)\TemplateCIEP\basesCIEP\INEGI\SCN\Cuenta de generacion del ingreso.IQY" name="Cuenta de generacion del ingreso" type="4" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" odcFile="C:\Users\rcant\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\Cuenta de generacion del ingreso.IQY" name="Cuenta de generacion del ingreso" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="http://www.inegi.org.mx/sistemas/BIE/ConsultaExporta.aspx" post="aamin=2003&amp;aamax=9999&amp;cveser=,500341,500342,500343,500344,500345,500346,500347,500348,500349,500350,500351,500352,&amp;ordena=a&amp;ordenaPeriodo=ap&amp;orientacion=v&amp;frecuencia=Todo&amp;estadistico=False&amp;esquema=&amp;bdesplaza=False&amp;FileFormat=iqy" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -117,7 +117,7 @@
   </si>
   <si>
     <r>
-      <t>2020</t>
+      <t>2021</t>
     </r>
     <r>
       <rPr>
@@ -147,7 +147,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> A partir de 2020</t>
+      <t xml:space="preserve"> A partir de 2021</t>
     </r>
   </si>
   <si>
@@ -166,7 +166,7 @@
     </r>
   </si>
   <si>
-    <t>Fecha de consulta: 01/12/2021 9:53:05</t>
+    <t>Fecha de consulta: 03/01/2023 19:26:12</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1012,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1780,10 +1780,10 @@
         <v>2019</v>
       </c>
       <c r="B20" s="4">
-        <v>6493990.2649999997</v>
+        <v>6493212.0389999999</v>
       </c>
       <c r="C20" s="4">
-        <v>5614673.085</v>
+        <v>5613894.8590000002</v>
       </c>
       <c r="D20" s="4">
         <v>879317.18</v>
@@ -1810,30 +1810,30 @@
         <v>95653.591</v>
       </c>
       <c r="L20" s="4">
-        <v>16387527.524</v>
+        <v>16380744.607999999</v>
       </c>
       <c r="M20" s="4">
-        <v>24453296.226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A21" s="4" t="s">
-        <v>17</v>
+        <v>24445735.083999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A21" s="4">
+        <v>2020</v>
       </c>
       <c r="B21" s="4">
-        <v>6635079.8420000002</v>
+        <v>6641010.4759999998</v>
       </c>
       <c r="C21" s="4">
-        <v>5747006.9280000003</v>
+        <v>5752937.5619999999</v>
       </c>
       <c r="D21" s="4">
         <v>888072.91399999999</v>
       </c>
       <c r="E21" s="4">
-        <v>1706575.7339999999</v>
+        <v>1703188.949</v>
       </c>
       <c r="F21" s="4">
-        <v>1553198.1440000001</v>
+        <v>1551745.1229999999</v>
       </c>
       <c r="G21" s="4">
         <v>987524.51899999997</v>
@@ -1842,56 +1842,80 @@
         <v>260477.12</v>
       </c>
       <c r="I21" s="4">
-        <v>305196.505</v>
+        <v>303743.484</v>
       </c>
       <c r="J21" s="4">
-        <v>153377.59</v>
+        <v>151443.826</v>
       </c>
       <c r="K21" s="4">
-        <v>89856.161999999997</v>
+        <v>89939.039000000004</v>
       </c>
       <c r="L21" s="4">
-        <v>15105578.426000001</v>
+        <v>15176117.072000001</v>
       </c>
       <c r="M21" s="4">
-        <v>23357377.84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-    </row>
-    <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+        <v>23430377.458000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="4">
+        <v>7214544.0470000003</v>
+      </c>
+      <c r="C22" s="4">
+        <v>6233724.8849999998</v>
+      </c>
+      <c r="D22" s="4">
+        <v>980819.16200000001</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1825835.4580000001</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1660672.4820000001</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1123698.6000000001</v>
+      </c>
+      <c r="H22" s="4">
+        <v>75576.157000000007</v>
+      </c>
+      <c r="I22" s="4">
+        <v>461397.72499999998</v>
+      </c>
+      <c r="J22" s="4">
+        <v>165162.976</v>
+      </c>
+      <c r="K22" s="4">
+        <v>91370.543000000005</v>
+      </c>
+      <c r="L22" s="4">
+        <v>16854499.155000001</v>
+      </c>
+      <c r="M22" s="4">
+        <v>25803508.116999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
     </row>
     <row r="24" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1908,7 +1932,7 @@
     </row>
     <row r="25" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1923,27 +1947,44 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A26" s="4"/>
-    </row>
-    <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="6" t="s">
+    <row r="26" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A28" s="4"/>
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A29" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A22:M22"/>
     <mergeCell ref="A23:M23"/>
     <mergeCell ref="A24:M24"/>
     <mergeCell ref="A25:M25"/>
+    <mergeCell ref="A26:M26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
